--- a/sharedata/exceldata/excel/all/F-肤色表.xlsx
+++ b/sharedata/exceldata/excel/all/F-肤色表.xlsx
@@ -1,270 +1,206 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="肤色表" sheetId="1" r:id="rId1"/>
     <sheet name="孩子形象表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>填写备注</t>
   </si>
   <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>检索名</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>孩子模型列表</t>
+  </si>
+  <si>
+    <t>SkinData</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ch_key</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>child_role_list</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>string_list</t>
+  </si>
+  <si>
     <t>此行是逻辑规则</t>
   </si>
   <si>
     <t>$key</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$uniq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref(ChildDisplayData)</t>
   </si>
   <si>
     <t>白种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白种孩子_1</t>
+  </si>
+  <si>
+    <t>黑种</t>
+  </si>
+  <si>
+    <t>黑孩子_1</t>
   </si>
   <si>
     <t>黄种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孩子模型列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkinData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>child_role_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白种孩子_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑孩子_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄孩子_1</t>
   </si>
   <si>
     <t>男婴儿单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>女婴儿单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>男孩子单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女孩子单位</t>
+  </si>
+  <si>
+    <t>男继任单位</t>
   </si>
   <si>
     <t>女继任单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶妈动画</t>
+  </si>
+  <si>
+    <t>婴儿图片</t>
+  </si>
+  <si>
+    <t>婴儿头像</t>
+  </si>
+  <si>
+    <t>ChildDisplayData</t>
+  </si>
+  <si>
+    <t>baby_boy_unit</t>
+  </si>
+  <si>
+    <t>baby_girl_unit</t>
+  </si>
+  <si>
+    <t>boy_unit</t>
+  </si>
+  <si>
+    <t>girl_unit</t>
+  </si>
+  <si>
+    <t>man_unit</t>
+  </si>
+  <si>
+    <t>woman_unit</t>
+  </si>
+  <si>
+    <t>nanny_anim</t>
+  </si>
+  <si>
+    <t>baby_img</t>
+  </si>
+  <si>
+    <t>baby_icon</t>
   </si>
   <si>
     <t>ref(UnitData)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref(UnitData)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白种孩子_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref(IconData)</t>
   </si>
   <si>
     <t>男婴儿白_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑孩子_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女婴儿白_1</t>
+  </si>
+  <si>
+    <t>男孩子白_1</t>
+  </si>
+  <si>
+    <t>女孩子白_1</t>
+  </si>
+  <si>
+    <t>男成年白_1</t>
+  </si>
+  <si>
+    <t>女成年白_1</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>婴儿立绘_白</t>
+  </si>
+  <si>
+    <t>婴儿头像_白</t>
   </si>
   <si>
     <t>男婴儿黑_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>女孩子单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男继任单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女婴儿白_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>男孩子白_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>女孩子白_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>男成年白_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>女成年白_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>女婴儿黑_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>男孩子黑_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>女孩子黑_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>男成年黑_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>女成年黑_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChildDisplayData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref(ChildDisplayData)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶妈动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nanny_anim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婴儿图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baby_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref(IconData)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>婴儿立绘_白</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle3</t>
   </si>
   <si>
     <t>婴儿立绘_黑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>baby_boy_unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boy_unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>man_unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baby_girl_unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>girl_unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woman_unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idle3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄孩子_1</t>
+  </si>
+  <si>
+    <t>婴儿头像_黑</t>
   </si>
   <si>
     <t>男婴儿黄_1</t>
@@ -282,53 +218,33 @@
     <t>男成年黄_1</t>
   </si>
   <si>
+    <t>女成年黄_1</t>
+  </si>
+  <si>
+    <t>idle2</t>
+  </si>
+  <si>
     <t>婴儿立绘_黄</t>
   </si>
   <si>
-    <t>idle2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>婴儿头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baby_icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref(IconData)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婴儿头像_白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婴儿头像_黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>婴儿头像_黄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -336,30 +252,167 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,18 +421,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79989013336588644"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -389,57 +628,343 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyFill="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="1表头" xfId="2"/>
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="1表头" xfId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -488,7 +1013,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,7 +1048,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -726,19 +1251,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
@@ -751,128 +1276,129 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>63</v>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
@@ -887,256 +1413,256 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>61</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>27</v>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>74</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>75</v>
+      <c r="G8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="2:12">
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>